--- a/2024-03-02/outputs/analysis/timing vs punching mode.xlsx
+++ b/2024-03-02/outputs/analysis/timing vs punching mode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardo/repos/equipment-examinations/2024-03-02/outputs/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7604B7-4A98-654D-B76C-A851928CC113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EAB9C-2797-5D41-AEBE-051C43D91B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="1040" windowWidth="30240" windowHeight="17780" xr2:uid="{845E1804-C8A6-A546-A00F-E56741BEE9E0}"/>
+    <workbookView xWindow="-800" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{845E1804-C8A6-A546-A00F-E56741BEE9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2316,7 +2316,2150 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PF chest - Photocell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$F$2:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>2.4499999999534339E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1999999996041879E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1299999998300336E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4000000026426278E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.1999999961699359E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7000000015250407E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0300000001734588E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.9999999909196049E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5999999971827492E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3999999953666702E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.3999999979860149E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9999999939464033E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5200000001641456E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.6000000006170012E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2999999966705218E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3800000002665911E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.1000000017229468E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9999999494757503E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1999999991967343E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4999999999417923E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.1999999957624823E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.599999999802094E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7000000011175871E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2099999996717088E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4999999962747097E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4999999984866008E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.6799999997601844E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0500000003958121E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4600000002246816E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1800000000221189E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.8399999995599501E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.299999999901047E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.329999999870779E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9999999943538569E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.9999997473787516E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2000000002444722E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.1999999991967343E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9599999999627471E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6999999980907887E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1999999953550287E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.1899999997694977E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-5.0999999948544428E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.4999999950523488E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8999999956577085E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.999999946448952E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5.0000000192085281E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3100000003760215E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-3.5199999998440035E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2000000030384399E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.4999999950523488E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0999999978812411E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.0000000016298145E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.9999999969732016E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.0999999982886948E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6100000000733417E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.2999999932362698E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7999999994062819E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8000000020256266E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.2700000006589107E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9000000000232831E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.9999999656574801E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.0000000192085281E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.4000000048545189E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3999999975785613E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-5.5999999967752956E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-4.7000000049592927E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.0000000012223609E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.7000000045518391E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.799999998183921E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.7999999989988282E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7000000011175871E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.599999999802094E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.4000000018277206E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.0999999952618964E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-8.900000000721775E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.4899999996705446E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6400000000430737E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.9999999969732016E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.3999999988009222E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4999999997089617E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3.6000000036437996E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-8.8000000032479875E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-6.3999999983934686E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.0999999982886948E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.4999999984866008E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.3000000013271347E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-4.7999999951571226E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.7000000007101335E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.0999999944469891E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-5.9999999939464033E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$G$2:$G$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>3.8173136199295854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.795958074049814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.822756668297632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.21843690489986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.79581072141178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.325348818653694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.20399385471886</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.327772207212234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.707247670270021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.218436920570042</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.21810304902484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.304110947265983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.149935450986529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.79094081532515</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.841093600145385</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.661434815496236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4469216401705856</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.174484033295975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.348789723415926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.665229196314101</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.631026227631725</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.690222140868425</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.226673754438522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.604049557043666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.52430872219184643</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.066552602990981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.08741150968843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1323295360316035</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.738045589364813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.609483447471803</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20.604063511856584</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.59344921779671</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.4855450963017798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.590784156168397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23.836838863268092</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.006172829588763</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.480914925854641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.321648990712252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.957684973131933</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9870127184285398</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.102672858017456</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.471247875465366</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.516627196026747</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.528624957300458</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.430348911950503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.33143440496184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.1976585395185</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39.861850931846234</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.931474972638291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.339384805896231</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9459893952171969E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40.437783935611236</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.430348911950503</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40.428790122321793</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.359811943518686</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>36.006172816414434</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.97346749061721</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.924220498706465</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.038957698785399</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.454829857485592</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.362576000646769</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.834172979686603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.638163523312429</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.007176819893401</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.044197995820548</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39.691556773038528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39.197658547401602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>39.861850931846234</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34.631637502021896</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19.101113437735162</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.543657247842226</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37.359811943518686</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.389239770424851</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.294785716872298</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>36.672659879853455</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.861850931846234</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.500508959025318</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.997005001702242</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.620846849830748</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.786153572945985</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26.796825825829789</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.604049557043666</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40.599318891343913</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16.357716502641587</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.619390249111888</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>38.507417849355988</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23.534635632498819</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>19.101113437735162</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.4904260572769479</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.357716502641587</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.389239770424851</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.259820766398882</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>36.875059053168535</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32.071223786253356</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>19.340971759415783</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.293640708596111</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.479393597360463</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.326773840845277</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35.450470473951022</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.259037080592158</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35.96919756518249</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40.664798464822944</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37.785528708862266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F6F-1048-99CA-0DAFD3454120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1829646287"/>
+        <c:axId val="1793912447"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PF card - Sportident Timing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>-3.3300000002782326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.5200000003678724E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6199999998207204E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30380000000150176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.0200000001932494E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3003000000026077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13430000000516884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.1199999998498242E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9300000001967419E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2799999993585516E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.12269999999989523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.1999999991967343E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.2000000068801455E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3000000035390258E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.2000000000116415E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1299999998300336E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9799999999522697E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3799999993352685E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.9199999994016252E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.7700000000768341E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.11319999999977881</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7300000000395812E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.14370000000053551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0299999997369014E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2999999936437234E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.16320000000268919</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39979999999923166</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.2799999998824205E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-4.3200000000069849E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7999999985913746E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-8.3699999995587859E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6800000004877802E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.1200000001699664E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.0800000004528556E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.37999999942258E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8.1999999965773895E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3800000004703179E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.31330000000161817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.7699999996693805E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3300000000745058E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.719999999681022E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6200000005483162E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2299999996903352E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.830000000220025E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32280000000173459</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.7999999998137355E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9800000004761387E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.6999999976833351E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.12969999999768334</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.329999999870779E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4300000002549496E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7299999993119854E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.300000000919681E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3700000003154855E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0799999996379483E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3800000001501758E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.16820000000006985</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-8.6999999984982423E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.1999999987892807E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.3800000000628643E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0800000005692709E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.4199999996635597E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.6799999996437691E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.16679999999905704</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.15769999999611173</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2299999995739199E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2300000002142042E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9300000000803266E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.6300000002956949E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3300000002782326E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.2699999998148996E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.14130000000295695</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.2000000026309863E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-8.0200000003969762E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.50979999999981374</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.080000000045402E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-7.9200000000128057E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5.6700000001001172E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.7799999996204861E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.20930000000225846</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.9200000005366746E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.11570000000210712</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.5842999999949825</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1799999997019768E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-8.5700000003271271E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.9699999994772952E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.6999999942490831E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-9.7699999998440035E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.2299999999813735E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.4700000003795139E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.31530000000202563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.1799999997019768E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.4200000001874287E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59829999999783468</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.7299999996321276E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.4699999999720603E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.30080000000452856</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.0799999997252598E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-7.4200000002747402E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-7.069999999657739E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.5800000000745058E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$2:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>2.539299040954329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7922027099122415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6059557049708442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6715919793415077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44427040383746169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1632294341653564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4660242406466672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8049462923164361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1988459842394183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1517774126148224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8443771890409613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8456790236168015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5282835490646594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.749252396792214</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7386917500734733</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7711000932252072</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.727616463992657</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8098894147022242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6954410543709417</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8174304402610311</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3900555430307509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.500306890013599</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6444584387206793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8054169335127046</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2787640904202884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.7946543488003432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7922027098840005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0621370470116391</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3898759565732709E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.8372652827544256</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4490127086594997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7820737243109224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0050137016231808</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8253201317623597</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3697554398885359</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8244376189759524</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8163951178329785</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7218878762836902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8457252739272221</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38898352995943747</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.6613004946378691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.8380283203296375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5901401468766889</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6715919792922329</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8364663686348552</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8301670342143672</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.33901640089717083</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8049462923164361</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7525161726970868</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7413804099718839</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4437175402920994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8159922589788722</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8188334986968417</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8054169335372996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7922027099122415</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.688148987295206</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8082764627255479</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.8163951178119362</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0096198081561725</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.7189762148367542</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.7592921128859649</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8174304402817039</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.8338546780735081</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.4393967602696689</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.833177751908222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8122471758040994</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.121417798277627</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.820574954044802</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8130107470747689</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7983796658121527</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8240934593303701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8457202482115158</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.4537880672954677</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1187494952431991</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.754337752887781</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.0467075256838552</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.8892993754969129E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.8451521886456037</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0585428268652808</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.312386799947034</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.8432768690038186</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.2977240219947492</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1746317517420706</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6137744932720823</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.269434774045875E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.8454879854695467</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9810166486754333</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.0526297014148573</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7359709239181296</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8350866944861799</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7394415401168102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5270969491531599</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37803004229664849</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.8454879854695467</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.5314770748777575</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5325821575804052E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.8447470432906861</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.6816162393933194</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.46287018346621278</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8244376189939175</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1171373767579111</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1575095473373165</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6552726105768896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F6F-1048-99CA-0DAFD3454120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PF card - Sportident Punching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$I$2:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>-0.36420000000362052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.23670000000129221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.24320000000443542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.22220000000379514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25869999999849824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.21719999999913853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2676999999966938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39870000000519212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.27770000000600703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.27870000000257278</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.50720000000001164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.31919999999809079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.40469999999913853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.32820000000356231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.51870000000053551</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.38270000000193249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.28570000000036089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.24670000000332948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.46670000000449363</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.25220000000263099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.22469999999884749</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.40170000000216532</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.26670000000012806</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.20919999999750871</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43219999999564607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.32519999999931315</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.40470000000641448</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.27019999999902211</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.23369999999704305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.42220000000088476</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.44470000000001164</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.42420000000129221</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.13769999999931315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.33370000000286382</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.43119999999908032</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.63019999999960419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.31870000000344589</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.23470000000088476</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2286999999996624</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.3286999999982072</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.30919999999605352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.41319999999541324</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.21970000000146683</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.39719999999942956</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.30370000000402797</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.34519999999611173</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.43970000000263099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.35119999999733409</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2636999999958789</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.26920000000245636</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.2617000000027474</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.30270000000018626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.35120000000461005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.15620000000490109</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.36869999999908032</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.16670000000158325</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.28469999999651918</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.2956999999951222</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.22069999999803258</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.21020000000135042</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.31770000000688015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$J$2:$J$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>3.7118784791419892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8910836310368442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.055937597873196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5127721579132656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4239873848984295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3815013291726501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.614165625267566</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9318158398742802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7984896504920354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8151514762127516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60111920795003215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1576962865600828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7770682451449282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1365947745511091</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47148832144529751</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3237978625544655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9219026682291354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1425859852135734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2612307764806296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2749223333281794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5784695457839413</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8547882330953369</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5940847193618009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1732724835191641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0602474759641791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1476693737651891</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7770682449557298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6631189512929558</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8136678463958762</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3184552624474128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.750598416704344</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2663148154042192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70452506012333005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1059299380054863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0857372718466043</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1242373632060392E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1577990101317024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8395484046636605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6833850130617476</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1343589274342829</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1383445302814383</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5545642389120569</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4470868615125716</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9700165722595924</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.1086725654170007</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.9998501448066501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8722514176991791</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9231607807057216</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5322062076663623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.6437553777955771</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4896511253352283</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1018522969908338</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9231607806043187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99449774543049618</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6258844504388619</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.1895720732748509</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.9077447090257986</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0421141576538764</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.4733538632647614</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1991070333946499</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.1576657476104062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F6F-1048-99CA-0DAFD3454120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2143918528"/>
+        <c:axId val="70301295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1829646287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793912447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1793912447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829646287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70301295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143918528"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2143918528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70301295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2872,6 +5015,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2912,6 +5571,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>197554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBDE64D-E916-F949-85B4-E95816D3DA36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2944,8 +5641,14 @@
           <cell r="K2">
             <v>-3.3300000002782326E-2</v>
           </cell>
+          <cell r="L2">
+            <v>2.539299040954329</v>
+          </cell>
           <cell r="O2">
             <v>2.4499999999534339E-2</v>
+          </cell>
+          <cell r="P2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -2955,8 +5658,14 @@
           <cell r="K3">
             <v>6.300000000919681E-3</v>
           </cell>
+          <cell r="L3">
+            <v>2.7922027099122415</v>
+          </cell>
           <cell r="O3">
             <v>5.1999999996041879E-3</v>
+          </cell>
+          <cell r="P3">
+            <v>39.795958074049814</v>
           </cell>
         </row>
         <row r="4">
@@ -2966,8 +5675,14 @@
           <cell r="K4">
             <v>-2.5200000003678724E-2</v>
           </cell>
+          <cell r="L4">
+            <v>2.6059557049708442</v>
+          </cell>
           <cell r="O4">
             <v>1.1299999998300336E-2</v>
+          </cell>
+          <cell r="P4">
+            <v>28.822756668297632</v>
           </cell>
         </row>
         <row r="5">
@@ -2977,8 +5692,14 @@
           <cell r="K5">
             <v>-1.6199999998207204E-2</v>
           </cell>
+          <cell r="L5">
+            <v>2.6715919793415077</v>
+          </cell>
           <cell r="O5">
             <v>9.4000000026426278E-3</v>
+          </cell>
+          <cell r="P5">
+            <v>33.21843690489986</v>
           </cell>
         </row>
         <row r="6">
@@ -2988,8 +5709,14 @@
           <cell r="K6">
             <v>0.30380000000150176</v>
           </cell>
+          <cell r="L6">
+            <v>0.44427040383746169</v>
+          </cell>
           <cell r="O6">
             <v>-6.1999999961699359E-3</v>
+          </cell>
+          <cell r="P6">
+            <v>25.79581072141178</v>
           </cell>
         </row>
         <row r="7">
@@ -2999,8 +5726,14 @@
           <cell r="K7">
             <v>-7.0200000001932494E-2</v>
           </cell>
+          <cell r="L7">
+            <v>2.1632294341653564</v>
+          </cell>
           <cell r="O7">
             <v>5.7000000015250407E-3</v>
+          </cell>
+          <cell r="P7">
+            <v>39.325348818653694</v>
           </cell>
         </row>
         <row r="8">
@@ -3010,8 +5743,14 @@
           <cell r="K8">
             <v>0.3003000000026077</v>
           </cell>
+          <cell r="L8">
+            <v>0.4660242406466672</v>
+          </cell>
           <cell r="O8">
             <v>1.0300000001734588E-2</v>
+          </cell>
+          <cell r="P8">
+            <v>31.20399385471886</v>
           </cell>
         </row>
         <row r="9">
@@ -3021,8 +5760,14 @@
           <cell r="K9">
             <v>9.7999999998137355E-3</v>
           </cell>
+          <cell r="L9">
+            <v>2.8049462923164361</v>
+          </cell>
           <cell r="O9">
             <v>-8.9999999909196049E-4</v>
+          </cell>
+          <cell r="P9">
+            <v>37.327772207212234</v>
           </cell>
         </row>
         <row r="10">
@@ -3032,8 +5777,14 @@
           <cell r="K10">
             <v>0.13430000000516884</v>
           </cell>
+          <cell r="L10">
+            <v>2.1988459842394183</v>
+          </cell>
           <cell r="O10">
             <v>7.5999999971827492E-3</v>
+          </cell>
+          <cell r="P10">
+            <v>36.707247670270021</v>
           </cell>
         </row>
         <row r="11">
@@ -3043,8 +5794,14 @@
           <cell r="K11">
             <v>-7.1199999998498242E-2</v>
           </cell>
+          <cell r="L11">
+            <v>2.1517774126148224</v>
+          </cell>
           <cell r="O11">
             <v>9.3999999953666702E-3</v>
+          </cell>
+          <cell r="P11">
+            <v>33.218436920570042</v>
           </cell>
         </row>
         <row r="12">
@@ -3054,8 +5811,14 @@
           <cell r="K12">
             <v>2.9300000001967419E-2</v>
           </cell>
+          <cell r="L12">
+            <v>2.8443771890409613</v>
+          </cell>
           <cell r="O12">
             <v>-4.3999999979860149E-3</v>
+          </cell>
+          <cell r="P12">
+            <v>30.21810304902484</v>
           </cell>
         </row>
         <row r="13">
@@ -3065,8 +5828,14 @@
           <cell r="K13">
             <v>3.2799999993585516E-2</v>
           </cell>
+          <cell r="L13">
+            <v>2.8456790236168015</v>
+          </cell>
           <cell r="O13">
             <v>5.9999999939464033E-4</v>
+          </cell>
+          <cell r="P13">
+            <v>39.304110947265983</v>
           </cell>
         </row>
         <row r="14">
@@ -3076,8 +5845,14 @@
           <cell r="K14">
             <v>-0.12269999999989523</v>
           </cell>
+          <cell r="L14">
+            <v>1.5282835490646594</v>
+          </cell>
           <cell r="O14">
             <v>1.5200000001641456E-2</v>
+          </cell>
+          <cell r="P14">
+            <v>19.149935450986529</v>
           </cell>
         </row>
         <row r="15">
@@ -3087,8 +5862,14 @@
           <cell r="K15">
             <v>-3.1999999991967343E-3</v>
           </cell>
+          <cell r="L15">
+            <v>2.749252396792214</v>
+          </cell>
           <cell r="O15">
             <v>-6.6000000006170012E-3</v>
+          </cell>
+          <cell r="P15">
+            <v>24.79094081532515</v>
           </cell>
         </row>
         <row r="16">
@@ -3098,8 +5879,14 @@
           <cell r="K16">
             <v>-5.2000000068801455E-3</v>
           </cell>
+          <cell r="L16">
+            <v>2.7386917500734733</v>
+          </cell>
           <cell r="O16">
             <v>-1.1999999987892807E-3</v>
+          </cell>
+          <cell r="P16">
+            <v>36.841093600145385</v>
           </cell>
         </row>
         <row r="17">
@@ -3109,8 +5896,14 @@
           <cell r="K17">
             <v>1.3000000035390258E-3</v>
           </cell>
+          <cell r="L17">
+            <v>2.7711000932252072</v>
+          </cell>
           <cell r="O17">
             <v>3.2999999966705218E-3</v>
+          </cell>
+          <cell r="P17">
+            <v>40.661434815496236</v>
           </cell>
         </row>
         <row r="18">
@@ -3120,8 +5913,14 @@
           <cell r="K18">
             <v>-7.2000000000116415E-3</v>
           </cell>
+          <cell r="L18">
+            <v>2.727616463992657</v>
+          </cell>
           <cell r="O18">
             <v>2.3800000002665911E-2</v>
+          </cell>
+          <cell r="P18">
+            <v>4.4469216401705856</v>
           </cell>
         </row>
         <row r="19">
@@ -3131,8 +5930,14 @@
           <cell r="K19">
             <v>1.1299999998300336E-2</v>
           </cell>
+          <cell r="L19">
+            <v>2.8098894147022242</v>
+          </cell>
           <cell r="O19">
             <v>-3.1000000017229468E-3</v>
+          </cell>
+          <cell r="P19">
+            <v>33.174484033295975</v>
           </cell>
         </row>
         <row r="20">
@@ -3142,8 +5947,14 @@
           <cell r="K20">
             <v>7.9799999999522697E-2</v>
           </cell>
+          <cell r="L20">
+            <v>2.6954410543709417</v>
+          </cell>
           <cell r="O20">
             <v>-1.9999999494757503E-4</v>
+          </cell>
+          <cell r="P20">
+            <v>38.348789723415926</v>
           </cell>
         </row>
         <row r="21">
@@ -3153,8 +5964,14 @@
           <cell r="K21">
             <v>1.3799999993352685E-2</v>
           </cell>
+          <cell r="L21">
+            <v>2.8174304402610311</v>
+          </cell>
           <cell r="O21">
             <v>3.1999999991967343E-3</v>
+          </cell>
+          <cell r="P21">
+            <v>40.665229196314101</v>
           </cell>
         </row>
         <row r="22">
@@ -3164,8 +5981,14 @@
           <cell r="K22">
             <v>-4.9199999994016252E-2</v>
           </cell>
+          <cell r="L22">
+            <v>2.3900555430307509</v>
+          </cell>
           <cell r="O22">
             <v>1.4999999999417923E-2</v>
+          </cell>
+          <cell r="P22">
+            <v>19.631026227631725</v>
           </cell>
         </row>
         <row r="23">
@@ -3175,8 +5998,14 @@
           <cell r="K23">
             <v>-3.7700000000768341E-2</v>
           </cell>
+          <cell r="L23">
+            <v>2.500306890013599</v>
+          </cell>
           <cell r="O23">
             <v>-4.1999999957624823E-3</v>
+          </cell>
+          <cell r="P23">
+            <v>30.690222140868425</v>
           </cell>
         </row>
         <row r="24">
@@ -3186,8 +6015,14 @@
           <cell r="K24">
             <v>-0.11319999999977881</v>
           </cell>
+          <cell r="L24">
+            <v>1.6444584387206793</v>
+          </cell>
           <cell r="O24">
             <v>-2.599999999802094E-3</v>
+          </cell>
+          <cell r="P24">
+            <v>34.226673754438522</v>
           </cell>
         </row>
         <row r="25">
@@ -3197,8 +6032,14 @@
           <cell r="K25">
             <v>5.7300000000395812E-2</v>
           </cell>
+          <cell r="L25">
+            <v>2.8054169335127046</v>
+          </cell>
           <cell r="O25">
             <v>3.7000000011175871E-3</v>
+          </cell>
+          <cell r="P25">
+            <v>40.604049557043666</v>
           </cell>
         </row>
         <row r="26">
@@ -3208,8 +6049,14 @@
           <cell r="K26">
             <v>-0.14370000000053551</v>
           </cell>
+          <cell r="L26">
+            <v>1.2787640904202884</v>
+          </cell>
           <cell r="O26">
             <v>3.2099999996717088E-2</v>
+          </cell>
+          <cell r="P26">
+            <v>0.52430872219184643</v>
           </cell>
         </row>
         <row r="27">
@@ -3219,8 +6066,14 @@
           <cell r="K27">
             <v>6.0299999997369014E-2</v>
           </cell>
+          <cell r="L27">
+            <v>2.7946543488003432</v>
+          </cell>
           <cell r="O27">
             <v>8.4999999962747097E-3</v>
+          </cell>
+          <cell r="P27">
+            <v>35.066552602990981</v>
           </cell>
         </row>
         <row r="28">
@@ -3230,8 +6083,14 @@
           <cell r="K28">
             <v>6.2999999936437234E-3</v>
           </cell>
+          <cell r="L28">
+            <v>2.7922027098840005</v>
+          </cell>
           <cell r="O28">
             <v>1.4999999984866008E-3</v>
+          </cell>
+          <cell r="P28">
+            <v>40.08741150968843</v>
           </cell>
         </row>
         <row r="29">
@@ -3241,8 +6100,14 @@
           <cell r="K29">
             <v>-0.16320000000268919</v>
           </cell>
+          <cell r="L29">
+            <v>1.0621370470116391</v>
+          </cell>
           <cell r="O29">
             <v>-1.6799999997601844E-2</v>
+          </cell>
+          <cell r="P29">
+            <v>5.1323295360316035</v>
           </cell>
         </row>
         <row r="30">
@@ -3252,8 +6117,14 @@
           <cell r="K30">
             <v>0.39979999999923166</v>
           </cell>
+          <cell r="L30">
+            <v>9.3898759565732709E-2</v>
+          </cell>
           <cell r="O30">
             <v>1.0500000003958121E-2</v>
+          </cell>
+          <cell r="P30">
+            <v>30.738045589364813</v>
           </cell>
         </row>
         <row r="31">
@@ -3263,8 +6134,14 @@
           <cell r="K31">
             <v>2.2799999998824205E-2</v>
           </cell>
+          <cell r="L31">
+            <v>2.8372652827544256</v>
+          </cell>
           <cell r="O31">
             <v>0</v>
+          </cell>
+          <cell r="P31">
+            <v>38.609483447471803</v>
           </cell>
         </row>
         <row r="32">
@@ -3274,8 +6151,14 @@
           <cell r="K32">
             <v>-4.3200000000069849E-2</v>
           </cell>
+          <cell r="L32">
+            <v>2.4490127086594997</v>
+          </cell>
           <cell r="O32">
             <v>1.4600000002246816E-2</v>
+          </cell>
+          <cell r="P32">
+            <v>20.604063511856584</v>
           </cell>
         </row>
         <row r="33">
@@ -3285,8 +6168,14 @@
           <cell r="K33">
             <v>3.7999999985913746E-3</v>
           </cell>
+          <cell r="L33">
+            <v>2.7820737243109224</v>
+          </cell>
           <cell r="O33">
             <v>1.1800000000221189E-2</v>
+          </cell>
+          <cell r="P33">
+            <v>27.59344921779671</v>
           </cell>
         </row>
         <row r="34">
@@ -3296,8 +6185,14 @@
           <cell r="K34">
             <v>-8.3699999995587859E-2</v>
           </cell>
+          <cell r="L34">
+            <v>2.0050137016231808</v>
+          </cell>
           <cell r="O34">
             <v>2.8399999995599501E-2</v>
+          </cell>
+          <cell r="P34">
+            <v>1.4855450963017798</v>
           </cell>
         </row>
         <row r="35">
@@ -3307,8 +6202,14 @@
           <cell r="K35">
             <v>1.6800000004877802E-2</v>
           </cell>
+          <cell r="L35">
+            <v>2.8253201317623597</v>
+          </cell>
           <cell r="O35">
             <v>1.299999999901047E-2</v>
+          </cell>
+          <cell r="P35">
+            <v>24.590784156168397</v>
           </cell>
         </row>
         <row r="36">
@@ -3318,8 +6219,14 @@
           <cell r="K36">
             <v>-5.1200000001699664E-2</v>
           </cell>
+          <cell r="L36">
+            <v>2.3697554398885359</v>
+          </cell>
           <cell r="O36">
             <v>1.329999999870779E-2</v>
+          </cell>
+          <cell r="P36">
+            <v>23.836838863268092</v>
           </cell>
         </row>
         <row r="37">
@@ -3329,8 +6236,14 @@
           <cell r="K37">
             <v>5.0800000004528556E-2</v>
           </cell>
+          <cell r="L37">
+            <v>2.8244376189759524</v>
+          </cell>
           <cell r="O37">
             <v>7.9999999943538569E-3</v>
+          </cell>
+          <cell r="P37">
+            <v>36.006172829588763</v>
           </cell>
         </row>
         <row r="38">
@@ -3340,8 +6253,14 @@
           <cell r="K38">
             <v>5.37999999942258E-2</v>
           </cell>
+          <cell r="L38">
+            <v>2.8163951178329785</v>
+          </cell>
           <cell r="O38">
             <v>-9.9999997473787516E-5</v>
+          </cell>
+          <cell r="P38">
+            <v>38.480914925854641</v>
           </cell>
         </row>
         <row r="39">
@@ -3351,8 +6270,14 @@
           <cell r="K39">
             <v>-8.1999999965773895E-3</v>
           </cell>
+          <cell r="L39">
+            <v>2.7218878762836902</v>
+          </cell>
           <cell r="O39">
             <v>-1.2000000002444722E-2</v>
+          </cell>
+          <cell r="P39">
+            <v>12.321648990712252</v>
           </cell>
         </row>
         <row r="40">
@@ -3362,8 +6287,14 @@
           <cell r="K40">
             <v>3.3800000004703179E-2</v>
           </cell>
+          <cell r="L40">
+            <v>2.8457252739272221</v>
+          </cell>
           <cell r="O40">
             <v>-3.1999999991967343E-3</v>
+          </cell>
+          <cell r="P40">
+            <v>32.957684973131933</v>
           </cell>
         </row>
         <row r="41">
@@ -3373,8 +6304,14 @@
           <cell r="K41">
             <v>0.31330000000161817</v>
           </cell>
+          <cell r="L41">
+            <v>0.38898352995943747</v>
+          </cell>
           <cell r="O41">
             <v>1.9599999999627471E-2</v>
+          </cell>
+          <cell r="P41">
+            <v>9.9870127184285398</v>
           </cell>
         </row>
         <row r="42">
@@ -3384,8 +6321,14 @@
           <cell r="K42">
             <v>-1.7699999996693805E-2</v>
           </cell>
+          <cell r="L42">
+            <v>2.6613004946378691</v>
+          </cell>
           <cell r="O42">
             <v>6.6999999980907887E-3</v>
+          </cell>
+          <cell r="P42">
+            <v>38.102672858017456</v>
           </cell>
         </row>
         <row r="43">
@@ -3395,8 +6338,14 @@
           <cell r="K43">
             <v>2.3300000000745058E-2</v>
           </cell>
+          <cell r="L43">
+            <v>2.8380283203296375</v>
+          </cell>
           <cell r="O43">
             <v>2.1999999953550287E-3</v>
+          </cell>
+          <cell r="P43">
+            <v>40.471247875465366</v>
           </cell>
         </row>
         <row r="44">
@@ -3406,8 +6355,14 @@
           <cell r="K44">
             <v>-2.719999999681022E-2</v>
           </cell>
+          <cell r="L44">
+            <v>2.5901401468766889</v>
+          </cell>
           <cell r="O44">
             <v>-1.1899999997694977E-2</v>
+          </cell>
+          <cell r="P44">
+            <v>12.516627196026747</v>
           </cell>
         </row>
         <row r="45">
@@ -3417,8 +6372,14 @@
           <cell r="K45">
             <v>-1.6200000005483162E-2</v>
           </cell>
+          <cell r="L45">
+            <v>2.6715919792922329</v>
+          </cell>
           <cell r="O45">
             <v>-5.0999999948544428E-3</v>
+          </cell>
+          <cell r="P45">
+            <v>28.528624957300458</v>
           </cell>
         </row>
         <row r="46">
@@ -3428,8 +6389,14 @@
           <cell r="K46">
             <v>2.2299999996903352E-2</v>
           </cell>
+          <cell r="L46">
+            <v>2.8364663686348552</v>
+          </cell>
           <cell r="O46">
             <v>-2.4999999950523488E-3</v>
+          </cell>
+          <cell r="P46">
+            <v>34.430348911950503</v>
           </cell>
         </row>
         <row r="47">
@@ -3439,8 +6406,14 @@
           <cell r="K47">
             <v>4.830000000220025E-2</v>
           </cell>
+          <cell r="L47">
+            <v>2.8301670342143672</v>
+          </cell>
           <cell r="O47">
             <v>1.8999999956577085E-3</v>
+          </cell>
+          <cell r="P47">
+            <v>40.33143440496184</v>
           </cell>
         </row>
         <row r="48">
@@ -3450,8 +6423,14 @@
           <cell r="K48">
             <v>0.32280000000173459</v>
           </cell>
+          <cell r="L48">
+            <v>0.33901640089717083</v>
+          </cell>
           <cell r="O48">
             <v>4.999999946448952E-4</v>
+          </cell>
+          <cell r="P48">
+            <v>39.1976585395185</v>
           </cell>
         </row>
         <row r="49">
@@ -3461,8 +6440,14 @@
           <cell r="K49">
             <v>9.7999999998137355E-3</v>
           </cell>
+          <cell r="L49">
+            <v>2.8049462923164361</v>
+          </cell>
           <cell r="O49">
             <v>1.1999999987892807E-3</v>
+          </cell>
+          <cell r="P49">
+            <v>39.861850931846234</v>
           </cell>
         </row>
         <row r="50">
@@ -3472,8 +6457,14 @@
           <cell r="K50">
             <v>6.9800000004761387E-2</v>
           </cell>
+          <cell r="L50">
+            <v>2.7525161726970868</v>
+          </cell>
           <cell r="O50">
             <v>-5.0000000192085281E-4</v>
+          </cell>
+          <cell r="P50">
+            <v>37.931474972638291</v>
           </cell>
         </row>
         <row r="51">
@@ -3483,8 +6474,14 @@
           <cell r="K51">
             <v>-4.6999999976833351E-3</v>
           </cell>
+          <cell r="L51">
+            <v>2.7413804099718839</v>
+          </cell>
           <cell r="O51">
             <v>1.3100000003760215E-2</v>
+          </cell>
+          <cell r="P51">
+            <v>24.339384805896231</v>
           </cell>
         </row>
         <row r="52">
@@ -3494,8 +6491,14 @@
           <cell r="K52">
             <v>-0.12969999999768334</v>
           </cell>
+          <cell r="L52">
+            <v>1.4437175402920994</v>
+          </cell>
           <cell r="O52">
             <v>-3.5199999998440035E-2</v>
+          </cell>
+          <cell r="P52">
+            <v>1.9459893952171969E-2</v>
           </cell>
         </row>
         <row r="53">
@@ -3505,8 +6508,14 @@
           <cell r="K53">
             <v>1.329999999870779E-2</v>
           </cell>
+          <cell r="L53">
+            <v>2.8159922589788722</v>
+          </cell>
           <cell r="O53">
             <v>4.2000000030384399E-3</v>
+          </cell>
+          <cell r="P53">
+            <v>40.437783935611236</v>
           </cell>
         </row>
         <row r="54">
@@ -3516,8 +6525,14 @@
           <cell r="K54">
             <v>1.4300000002549496E-2</v>
           </cell>
+          <cell r="L54">
+            <v>2.8188334986968417</v>
+          </cell>
           <cell r="O54">
             <v>-2.4999999950523488E-3</v>
+          </cell>
+          <cell r="P54">
+            <v>34.430348911950503</v>
           </cell>
         </row>
         <row r="55">
@@ -3527,8 +6542,14 @@
           <cell r="K55">
             <v>5.7299999993119854E-2</v>
           </cell>
+          <cell r="L55">
+            <v>2.8054169335372996</v>
+          </cell>
           <cell r="O55">
             <v>2.0999999978812411E-3</v>
+          </cell>
+          <cell r="P55">
+            <v>40.428790122321793</v>
           </cell>
         </row>
         <row r="56">
@@ -3538,8 +6559,14 @@
           <cell r="K56">
             <v>6.300000000919681E-3</v>
           </cell>
+          <cell r="L56">
+            <v>2.7922027099122415</v>
+          </cell>
           <cell r="O56">
             <v>7.2000000000116415E-3</v>
+          </cell>
+          <cell r="P56">
+            <v>37.359811943518686</v>
           </cell>
         </row>
         <row r="57">
@@ -3549,8 +6576,14 @@
           <cell r="K57">
             <v>-1.3700000003154855E-2</v>
           </cell>
+          <cell r="L57">
+            <v>2.688148987295206</v>
+          </cell>
           <cell r="O57">
             <v>8.0000000016298145E-3</v>
+          </cell>
+          <cell r="P57">
+            <v>36.006172816414434</v>
           </cell>
         </row>
         <row r="58">
@@ -3560,8 +6593,14 @@
           <cell r="K58">
             <v>1.0799999996379483E-2</v>
           </cell>
+          <cell r="L58">
+            <v>2.8082764627255479</v>
+          </cell>
           <cell r="O58">
             <v>2.9999999969732016E-4</v>
+          </cell>
+          <cell r="P58">
+            <v>38.97346749061721</v>
           </cell>
         </row>
         <row r="59">
@@ -3571,8 +6610,14 @@
           <cell r="K59">
             <v>5.3800000001501758E-2</v>
           </cell>
+          <cell r="L59">
+            <v>2.8163951178119362</v>
+          </cell>
           <cell r="O59">
             <v>-4.0999999982886948E-3</v>
+          </cell>
+          <cell r="P59">
+            <v>30.924220498706465</v>
           </cell>
         </row>
         <row r="60">
@@ -3582,8 +6627,14 @@
           <cell r="K60">
             <v>-0.16820000000006985</v>
           </cell>
+          <cell r="L60">
+            <v>1.0096198081561725</v>
+          </cell>
           <cell r="O60">
             <v>1.6100000000733417E-2</v>
+          </cell>
+          <cell r="P60">
+            <v>17.038957698785399</v>
           </cell>
         </row>
         <row r="61">
@@ -3593,8 +6644,14 @@
           <cell r="K61">
             <v>-8.6999999984982423E-3</v>
           </cell>
+          <cell r="L61">
+            <v>2.7189762148367542</v>
+          </cell>
           <cell r="O61">
             <v>-4.2999999932362698E-3</v>
+          </cell>
+          <cell r="P61">
+            <v>30.454829857485592</v>
           </cell>
         </row>
         <row r="62">
@@ -3604,8 +6661,14 @@
           <cell r="K62">
             <v>-1.1999999987892807E-3</v>
           </cell>
+          <cell r="L62">
+            <v>2.7592921128859649</v>
+          </cell>
           <cell r="O62">
             <v>7.7999999994062819E-3</v>
+          </cell>
+          <cell r="P62">
+            <v>36.362576000646769</v>
           </cell>
         </row>
         <row r="63">
@@ -3615,8 +6678,14 @@
           <cell r="K63">
             <v>1.3800000000628643E-2</v>
           </cell>
+          <cell r="L63">
+            <v>2.8174304402817039</v>
+          </cell>
           <cell r="O63">
             <v>1.3700000003154855E-2</v>
+          </cell>
+          <cell r="P63">
+            <v>22.834172979686603</v>
           </cell>
         </row>
         <row r="64">
@@ -3626,8 +6695,14 @@
           <cell r="K64">
             <v>2.0800000005692709E-2</v>
           </cell>
+          <cell r="L64">
+            <v>2.8338546780735081</v>
+          </cell>
           <cell r="O64">
             <v>2.8000000020256266E-3</v>
+          </cell>
+          <cell r="P64">
+            <v>40.638163523312429</v>
           </cell>
         </row>
         <row r="65">
@@ -3637,8 +6712,14 @@
           <cell r="K65">
             <v>-4.4199999996635597E-2</v>
           </cell>
+          <cell r="L65">
+            <v>2.4393967602696689</v>
+          </cell>
           <cell r="O65">
             <v>-1.2700000006589107E-2</v>
+          </cell>
+          <cell r="P65">
+            <v>11.007176819893401</v>
           </cell>
         </row>
         <row r="66">
@@ -3648,8 +6729,14 @@
           <cell r="K66">
             <v>4.6799999996437691E-2</v>
           </cell>
+          <cell r="L66">
+            <v>2.833177751908222</v>
+          </cell>
           <cell r="O66">
             <v>1.9000000000232831E-2</v>
+          </cell>
+          <cell r="P66">
+            <v>11.044197995820548</v>
           </cell>
         </row>
         <row r="67">
@@ -3659,8 +6746,14 @@
           <cell r="K67">
             <v>0.16679999999905704</v>
           </cell>
+          <cell r="L67">
+            <v>1.8122471758040994</v>
+          </cell>
           <cell r="O67">
             <v>9.9999999656574801E-4</v>
+          </cell>
+          <cell r="P67">
+            <v>39.691556773038528</v>
           </cell>
         </row>
         <row r="68">
@@ -3670,8 +6763,14 @@
           <cell r="K68">
             <v>-0.15769999999611173</v>
           </cell>
+          <cell r="L68">
+            <v>1.121417798277627</v>
+          </cell>
           <cell r="O68">
             <v>5.0000000192085281E-4</v>
+          </cell>
+          <cell r="P68">
+            <v>39.197658547401602</v>
           </cell>
         </row>
         <row r="69">
@@ -3681,8 +6780,14 @@
           <cell r="K69">
             <v>5.2299999995739199E-2</v>
           </cell>
+          <cell r="L69">
+            <v>2.820574954044802</v>
+          </cell>
           <cell r="O69">
             <v>1.1999999987892807E-3</v>
+          </cell>
+          <cell r="P69">
+            <v>39.861850931846234</v>
           </cell>
         </row>
         <row r="70">
@@ -3692,8 +6797,14 @@
           <cell r="K70">
             <v>1.2300000002142042E-2</v>
           </cell>
+          <cell r="L70">
+            <v>2.8130107470747689</v>
+          </cell>
           <cell r="O70">
             <v>-2.4000000048545189E-3</v>
+          </cell>
+          <cell r="P70">
+            <v>34.631637502021896</v>
           </cell>
         </row>
         <row r="71">
@@ -3703,8 +6814,14 @@
           <cell r="K71">
             <v>5.9300000000803266E-2</v>
           </cell>
+          <cell r="L71">
+            <v>2.7983796658121527</v>
+          </cell>
           <cell r="O71">
             <v>-8.900000000721775E-3</v>
+          </cell>
+          <cell r="P71">
+            <v>19.101113437735162</v>
           </cell>
         </row>
         <row r="72">
@@ -3714,8 +6831,14 @@
           <cell r="K72">
             <v>1.6300000002956949E-2</v>
           </cell>
+          <cell r="L72">
+            <v>2.8240934593303701</v>
+          </cell>
           <cell r="O72">
             <v>2.3999999975785613E-3</v>
+          </cell>
+          <cell r="P72">
+            <v>40.543657247842226</v>
           </cell>
         </row>
         <row r="73">
@@ -3725,8 +6848,14 @@
           <cell r="K73">
             <v>3.3300000002782326E-2</v>
           </cell>
+          <cell r="L73">
+            <v>2.8457202482115158</v>
+          </cell>
           <cell r="O73">
             <v>7.2000000000116415E-3</v>
+          </cell>
+          <cell r="P73">
+            <v>37.359811943518686</v>
           </cell>
         </row>
         <row r="74">
@@ -3736,8 +6865,14 @@
           <cell r="K74">
             <v>-4.2699999998148996E-2</v>
           </cell>
+          <cell r="L74">
+            <v>2.4537880672954677</v>
+          </cell>
           <cell r="O74">
             <v>-2.9999999969732016E-3</v>
+          </cell>
+          <cell r="P74">
+            <v>33.389239770424851</v>
           </cell>
         </row>
         <row r="75">
@@ -3747,8 +6882,14 @@
           <cell r="K75">
             <v>0.14130000000295695</v>
           </cell>
+          <cell r="L75">
+            <v>2.1187494952431991</v>
+          </cell>
           <cell r="O75">
             <v>-5.5999999967752956E-3</v>
+          </cell>
+          <cell r="P75">
+            <v>27.294785716872298</v>
           </cell>
         </row>
         <row r="76">
@@ -3758,8 +6899,14 @@
           <cell r="K76">
             <v>-2.2000000026309863E-3</v>
           </cell>
+          <cell r="L76">
+            <v>2.754337752887781</v>
+          </cell>
           <cell r="O76">
             <v>-1.3000000035390258E-3</v>
+          </cell>
+          <cell r="P76">
+            <v>36.672659879853455</v>
           </cell>
         </row>
         <row r="77">
@@ -3769,8 +6916,14 @@
           <cell r="K77">
             <v>-8.0200000003969762E-2</v>
           </cell>
+          <cell r="L77">
+            <v>2.0467075256838552</v>
+          </cell>
           <cell r="O77">
             <v>1.1999999987892807E-3</v>
+          </cell>
+          <cell r="P77">
+            <v>39.861850931846234</v>
           </cell>
         </row>
         <row r="78">
@@ -3780,8 +6933,14 @@
           <cell r="K78">
             <v>0.50979999999981374</v>
           </cell>
+          <cell r="L78">
+            <v>8.8892993754969129E-3</v>
+          </cell>
           <cell r="O78">
             <v>-4.7000000049592927E-3</v>
+          </cell>
+          <cell r="P78">
+            <v>29.500508959025318</v>
           </cell>
         </row>
         <row r="79">
@@ -3791,8 +6950,14 @@
           <cell r="K79">
             <v>3.080000000045402E-2</v>
           </cell>
+          <cell r="L79">
+            <v>2.8451521886456037</v>
+          </cell>
           <cell r="O79">
             <v>6.0000000012223609E-3</v>
+          </cell>
+          <cell r="P79">
+            <v>38.997005001702242</v>
           </cell>
         </row>
         <row r="80">
@@ -3802,8 +6967,14 @@
           <cell r="K80">
             <v>-7.9200000000128057E-2</v>
           </cell>
+          <cell r="L80">
+            <v>2.0585428268652808</v>
+          </cell>
           <cell r="O80">
             <v>2.7000000045518391E-3</v>
+          </cell>
+          <cell r="P80">
+            <v>40.620846849830748</v>
           </cell>
         </row>
         <row r="81">
@@ -3813,8 +6984,14 @@
           <cell r="K81">
             <v>-5.6700000001001172E-2</v>
           </cell>
+          <cell r="L81">
+            <v>2.312386799947034</v>
+          </cell>
           <cell r="O81">
             <v>-1.799999998183921E-3</v>
+          </cell>
+          <cell r="P81">
+            <v>35.786153572945985</v>
           </cell>
         </row>
         <row r="82">
@@ -3824,8 +7001,14 @@
           <cell r="K82">
             <v>2.7799999996204861E-2</v>
           </cell>
+          <cell r="L82">
+            <v>2.8432768690038186</v>
+          </cell>
           <cell r="O82">
             <v>-5.7999999989988282E-3</v>
+          </cell>
+          <cell r="P82">
+            <v>26.796825825829789</v>
           </cell>
         </row>
         <row r="83">
@@ -3835,8 +7018,14 @@
           <cell r="K83">
             <v>0.20930000000225846</v>
           </cell>
+          <cell r="L83">
+            <v>1.2977240219947492</v>
+          </cell>
           <cell r="O83">
             <v>3.7000000011175871E-3</v>
+          </cell>
+          <cell r="P83">
+            <v>40.604049557043666</v>
           </cell>
         </row>
         <row r="84">
@@ -3846,8 +7035,14 @@
           <cell r="K84">
             <v>-6.9200000005366746E-2</v>
           </cell>
+          <cell r="L84">
+            <v>2.1746317517420706</v>
+          </cell>
           <cell r="O84">
             <v>2.599999999802094E-3</v>
+          </cell>
+          <cell r="P84">
+            <v>40.599318891343913</v>
           </cell>
         </row>
         <row r="85">
@@ -3857,8 +7052,14 @@
           <cell r="K85">
             <v>-0.11570000000210712</v>
           </cell>
+          <cell r="L85">
+            <v>1.6137744932720823</v>
+          </cell>
           <cell r="O85">
             <v>1.6400000000430737E-2</v>
+          </cell>
+          <cell r="P85">
+            <v>16.357716502641587</v>
           </cell>
         </row>
         <row r="86">
@@ -3868,8 +7069,14 @@
           <cell r="K86">
             <v>0.5842999999949825</v>
           </cell>
+          <cell r="L86">
+            <v>1.269434774045875E-3</v>
+          </cell>
           <cell r="O86">
             <v>5.4000000018277206E-3</v>
+          </cell>
+          <cell r="P86">
+            <v>39.619390249111888</v>
           </cell>
         </row>
         <row r="87">
@@ -3879,8 +7086,14 @@
           <cell r="K87">
             <v>3.1799999997019768E-2</v>
           </cell>
+          <cell r="L87">
+            <v>2.8454879854695467</v>
+          </cell>
           <cell r="O87">
             <v>6.3999999983934686E-3</v>
+          </cell>
+          <cell r="P87">
+            <v>38.507417849355988</v>
           </cell>
         </row>
         <row r="88">
@@ -3890,8 +7103,14 @@
           <cell r="K88">
             <v>-8.5700000003271271E-2</v>
           </cell>
+          <cell r="L88">
+            <v>1.9810166486754333</v>
+          </cell>
           <cell r="O88">
             <v>-7.0999999952618964E-3</v>
+          </cell>
+          <cell r="P88">
+            <v>23.534635632498819</v>
           </cell>
         </row>
         <row r="89">
@@ -3901,8 +7120,14 @@
           <cell r="K89">
             <v>-7.9699999994772952E-2</v>
           </cell>
+          <cell r="L89">
+            <v>2.0526297014148573</v>
+          </cell>
           <cell r="O89">
             <v>-8.900000000721775E-3</v>
+          </cell>
+          <cell r="P89">
+            <v>19.101113437735162</v>
           </cell>
         </row>
         <row r="90">
@@ -3912,8 +7137,14 @@
           <cell r="K90">
             <v>-5.6999999942490831E-3</v>
           </cell>
+          <cell r="L90">
+            <v>2.7359709239181296</v>
+          </cell>
           <cell r="O90">
             <v>2.4899999996705446E-2</v>
+          </cell>
+          <cell r="P90">
+            <v>3.4904260572769479</v>
           </cell>
         </row>
         <row r="91">
@@ -3923,8 +7154,14 @@
           <cell r="K91">
             <v>-9.7699999998440035E-2</v>
           </cell>
+          <cell r="L91">
+            <v>1.8350866944861799</v>
+          </cell>
           <cell r="O91">
             <v>1.6400000000430737E-2</v>
+          </cell>
+          <cell r="P91">
+            <v>16.357716502641587</v>
           </cell>
         </row>
         <row r="92">
@@ -3934,8 +7171,14 @@
           <cell r="K92">
             <v>7.2299999999813735E-2</v>
           </cell>
+          <cell r="L92">
+            <v>2.7394415401168102</v>
+          </cell>
           <cell r="O92">
             <v>-2.9999999969732016E-3</v>
+          </cell>
+          <cell r="P92">
+            <v>33.389239770424851</v>
           </cell>
         </row>
         <row r="93">
@@ -3945,8 +7188,14 @@
           <cell r="K93">
             <v>-3.4700000003795139E-2</v>
           </cell>
+          <cell r="L93">
+            <v>2.5270969491531599</v>
+          </cell>
           <cell r="O93">
             <v>8.3999999988009222E-3</v>
+          </cell>
+          <cell r="P93">
+            <v>35.259820766398882</v>
           </cell>
         </row>
         <row r="94">
@@ -3956,8 +7205,14 @@
           <cell r="K94">
             <v>0.31530000000202563</v>
           </cell>
+          <cell r="L94">
+            <v>0.37803004229664849</v>
+          </cell>
           <cell r="O94">
             <v>7.4999999997089617E-3</v>
+          </cell>
+          <cell r="P94">
+            <v>36.875059053168535</v>
           </cell>
         </row>
         <row r="95">
@@ -3967,8 +7222,14 @@
           <cell r="K95">
             <v>3.1799999997019768E-2</v>
           </cell>
+          <cell r="L95">
+            <v>2.8454879854695467</v>
+          </cell>
           <cell r="O95">
             <v>-3.6000000036437996E-3</v>
+          </cell>
+          <cell r="P95">
+            <v>32.071223786253356</v>
           </cell>
         </row>
         <row r="96">
@@ -3978,8 +7239,14 @@
           <cell r="K96">
             <v>-3.4200000001874287E-2</v>
           </cell>
+          <cell r="L96">
+            <v>2.5314770748777575</v>
+          </cell>
           <cell r="O96">
             <v>-8.8000000032479875E-3</v>
+          </cell>
+          <cell r="P96">
+            <v>19.340971759415783</v>
           </cell>
         </row>
         <row r="97">
@@ -3989,8 +7256,14 @@
           <cell r="K97">
             <v>0.59829999999783468</v>
           </cell>
+          <cell r="L97">
+            <v>8.5325821575804052E-4</v>
+          </cell>
           <cell r="O97">
             <v>-6.3999999983934686E-3</v>
+          </cell>
+          <cell r="P97">
+            <v>25.293640708596111</v>
           </cell>
         </row>
         <row r="98">
@@ -4000,8 +7273,14 @@
           <cell r="K98">
             <v>3.7299999996321276E-2</v>
           </cell>
+          <cell r="L98">
+            <v>2.8447470432906861</v>
+          </cell>
           <cell r="O98">
             <v>4.0999999982886948E-3</v>
+          </cell>
+          <cell r="P98">
+            <v>40.479393597360463</v>
           </cell>
         </row>
         <row r="99">
@@ -4011,8 +7290,14 @@
           <cell r="K99">
             <v>-1.4699999999720603E-2</v>
           </cell>
+          <cell r="L99">
+            <v>2.6816162393933194</v>
+          </cell>
           <cell r="O99">
             <v>-1.4999999984866008E-3</v>
+          </cell>
+          <cell r="P99">
+            <v>36.326773840845277</v>
           </cell>
         </row>
         <row r="100">
@@ -4022,8 +7307,14 @@
           <cell r="K100">
             <v>0.30080000000452856</v>
           </cell>
+          <cell r="L100">
+            <v>0.46287018346621278</v>
+          </cell>
           <cell r="O100">
             <v>8.3000000013271347E-3</v>
+          </cell>
+          <cell r="P100">
+            <v>35.450470473951022</v>
           </cell>
         </row>
         <row r="101">
@@ -4033,8 +7324,14 @@
           <cell r="K101">
             <v>5.0799999997252598E-2</v>
           </cell>
+          <cell r="L101">
+            <v>2.8244376189939175</v>
+          </cell>
           <cell r="O101">
             <v>-4.7999999951571226E-3</v>
+          </cell>
+          <cell r="P101">
+            <v>29.259037080592158</v>
           </cell>
         </row>
         <row r="102">
@@ -4044,8 +7341,14 @@
           <cell r="K102">
             <v>-7.4200000002747402E-2</v>
           </cell>
+          <cell r="L102">
+            <v>2.1171373767579111</v>
+          </cell>
           <cell r="O102">
             <v>-1.7000000007101335E-3</v>
+          </cell>
+          <cell r="P102">
+            <v>35.96919756518249</v>
           </cell>
         </row>
         <row r="103">
@@ -4055,8 +7358,14 @@
           <cell r="K103">
             <v>-7.069999999657739E-2</v>
           </cell>
+          <cell r="L103">
+            <v>2.1575095473373165</v>
+          </cell>
           <cell r="O103">
             <v>3.0999999944469891E-3</v>
+          </cell>
+          <cell r="P103">
+            <v>40.664798464822944</v>
           </cell>
         </row>
         <row r="104">
@@ -4066,8 +7375,14 @@
           <cell r="K104">
             <v>8.5800000000745058E-2</v>
           </cell>
+          <cell r="L104">
+            <v>2.6552726105768896</v>
+          </cell>
           <cell r="O104">
             <v>-5.9999999939464033E-4</v>
+          </cell>
+          <cell r="P104">
+            <v>37.785528708862266</v>
           </cell>
         </row>
       </sheetData>
@@ -4399,7 +7714,7 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2024-03-02/outputs/analysis/timing vs punching mode.xlsx
+++ b/2024-03-02/outputs/analysis/timing vs punching mode.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edoardo/repos/equipment-examinations/2024-03-02/outputs/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8EAB9C-2797-5D41-AEBE-051C43D91B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8CF21C-8B04-AC47-9ADA-800B65E82228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-800" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{845E1804-C8A6-A546-A00F-E56741BEE9E0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{845E1804-C8A6-A546-A00F-E56741BEE9E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2365,9 +2362,7 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3058,9 +3053,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -3734,12 +3727,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -5612,1788 +5606,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Comparison"/>
-      <sheetName val="Sportident"/>
-      <sheetName val="Photocell"/>
-      <sheetName val="Photofinish"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="K1" t="str">
-            <v>PF card - Sportident</v>
-          </cell>
-          <cell r="O1" t="str">
-            <v>PF chest - Photocell</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>-3.3300000002782326E-2</v>
-          </cell>
-          <cell r="L2">
-            <v>2.539299040954329</v>
-          </cell>
-          <cell r="O2">
-            <v>2.4499999999534339E-2</v>
-          </cell>
-          <cell r="P2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>2</v>
-          </cell>
-          <cell r="K3">
-            <v>6.300000000919681E-3</v>
-          </cell>
-          <cell r="L3">
-            <v>2.7922027099122415</v>
-          </cell>
-          <cell r="O3">
-            <v>5.1999999996041879E-3</v>
-          </cell>
-          <cell r="P3">
-            <v>39.795958074049814</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>-2.5200000003678724E-2</v>
-          </cell>
-          <cell r="L4">
-            <v>2.6059557049708442</v>
-          </cell>
-          <cell r="O4">
-            <v>1.1299999998300336E-2</v>
-          </cell>
-          <cell r="P4">
-            <v>28.822756668297632</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>4</v>
-          </cell>
-          <cell r="K5">
-            <v>-1.6199999998207204E-2</v>
-          </cell>
-          <cell r="L5">
-            <v>2.6715919793415077</v>
-          </cell>
-          <cell r="O5">
-            <v>9.4000000026426278E-3</v>
-          </cell>
-          <cell r="P5">
-            <v>33.21843690489986</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>5</v>
-          </cell>
-          <cell r="K6">
-            <v>0.30380000000150176</v>
-          </cell>
-          <cell r="L6">
-            <v>0.44427040383746169</v>
-          </cell>
-          <cell r="O6">
-            <v>-6.1999999961699359E-3</v>
-          </cell>
-          <cell r="P6">
-            <v>25.79581072141178</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>6</v>
-          </cell>
-          <cell r="K7">
-            <v>-7.0200000001932494E-2</v>
-          </cell>
-          <cell r="L7">
-            <v>2.1632294341653564</v>
-          </cell>
-          <cell r="O7">
-            <v>5.7000000015250407E-3</v>
-          </cell>
-          <cell r="P7">
-            <v>39.325348818653694</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>7</v>
-          </cell>
-          <cell r="K8">
-            <v>0.3003000000026077</v>
-          </cell>
-          <cell r="L8">
-            <v>0.4660242406466672</v>
-          </cell>
-          <cell r="O8">
-            <v>1.0300000001734588E-2</v>
-          </cell>
-          <cell r="P8">
-            <v>31.20399385471886</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="J9">
-            <v>8</v>
-          </cell>
-          <cell r="K9">
-            <v>9.7999999998137355E-3</v>
-          </cell>
-          <cell r="L9">
-            <v>2.8049462923164361</v>
-          </cell>
-          <cell r="O9">
-            <v>-8.9999999909196049E-4</v>
-          </cell>
-          <cell r="P9">
-            <v>37.327772207212234</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>9</v>
-          </cell>
-          <cell r="K10">
-            <v>0.13430000000516884</v>
-          </cell>
-          <cell r="L10">
-            <v>2.1988459842394183</v>
-          </cell>
-          <cell r="O10">
-            <v>7.5999999971827492E-3</v>
-          </cell>
-          <cell r="P10">
-            <v>36.707247670270021</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>10</v>
-          </cell>
-          <cell r="K11">
-            <v>-7.1199999998498242E-2</v>
-          </cell>
-          <cell r="L11">
-            <v>2.1517774126148224</v>
-          </cell>
-          <cell r="O11">
-            <v>9.3999999953666702E-3</v>
-          </cell>
-          <cell r="P11">
-            <v>33.218436920570042</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>11</v>
-          </cell>
-          <cell r="K12">
-            <v>2.9300000001967419E-2</v>
-          </cell>
-          <cell r="L12">
-            <v>2.8443771890409613</v>
-          </cell>
-          <cell r="O12">
-            <v>-4.3999999979860149E-3</v>
-          </cell>
-          <cell r="P12">
-            <v>30.21810304902484</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>12</v>
-          </cell>
-          <cell r="K13">
-            <v>3.2799999993585516E-2</v>
-          </cell>
-          <cell r="L13">
-            <v>2.8456790236168015</v>
-          </cell>
-          <cell r="O13">
-            <v>5.9999999939464033E-4</v>
-          </cell>
-          <cell r="P13">
-            <v>39.304110947265983</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>13</v>
-          </cell>
-          <cell r="K14">
-            <v>-0.12269999999989523</v>
-          </cell>
-          <cell r="L14">
-            <v>1.5282835490646594</v>
-          </cell>
-          <cell r="O14">
-            <v>1.5200000001641456E-2</v>
-          </cell>
-          <cell r="P14">
-            <v>19.149935450986529</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>14</v>
-          </cell>
-          <cell r="K15">
-            <v>-3.1999999991967343E-3</v>
-          </cell>
-          <cell r="L15">
-            <v>2.749252396792214</v>
-          </cell>
-          <cell r="O15">
-            <v>-6.6000000006170012E-3</v>
-          </cell>
-          <cell r="P15">
-            <v>24.79094081532515</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>15</v>
-          </cell>
-          <cell r="K16">
-            <v>-5.2000000068801455E-3</v>
-          </cell>
-          <cell r="L16">
-            <v>2.7386917500734733</v>
-          </cell>
-          <cell r="O16">
-            <v>-1.1999999987892807E-3</v>
-          </cell>
-          <cell r="P16">
-            <v>36.841093600145385</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>16</v>
-          </cell>
-          <cell r="K17">
-            <v>1.3000000035390258E-3</v>
-          </cell>
-          <cell r="L17">
-            <v>2.7711000932252072</v>
-          </cell>
-          <cell r="O17">
-            <v>3.2999999966705218E-3</v>
-          </cell>
-          <cell r="P17">
-            <v>40.661434815496236</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>17</v>
-          </cell>
-          <cell r="K18">
-            <v>-7.2000000000116415E-3</v>
-          </cell>
-          <cell r="L18">
-            <v>2.727616463992657</v>
-          </cell>
-          <cell r="O18">
-            <v>2.3800000002665911E-2</v>
-          </cell>
-          <cell r="P18">
-            <v>4.4469216401705856</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>18</v>
-          </cell>
-          <cell r="K19">
-            <v>1.1299999998300336E-2</v>
-          </cell>
-          <cell r="L19">
-            <v>2.8098894147022242</v>
-          </cell>
-          <cell r="O19">
-            <v>-3.1000000017229468E-3</v>
-          </cell>
-          <cell r="P19">
-            <v>33.174484033295975</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>19</v>
-          </cell>
-          <cell r="K20">
-            <v>7.9799999999522697E-2</v>
-          </cell>
-          <cell r="L20">
-            <v>2.6954410543709417</v>
-          </cell>
-          <cell r="O20">
-            <v>-1.9999999494757503E-4</v>
-          </cell>
-          <cell r="P20">
-            <v>38.348789723415926</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>20</v>
-          </cell>
-          <cell r="K21">
-            <v>1.3799999993352685E-2</v>
-          </cell>
-          <cell r="L21">
-            <v>2.8174304402610311</v>
-          </cell>
-          <cell r="O21">
-            <v>3.1999999991967343E-3</v>
-          </cell>
-          <cell r="P21">
-            <v>40.665229196314101</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>21</v>
-          </cell>
-          <cell r="K22">
-            <v>-4.9199999994016252E-2</v>
-          </cell>
-          <cell r="L22">
-            <v>2.3900555430307509</v>
-          </cell>
-          <cell r="O22">
-            <v>1.4999999999417923E-2</v>
-          </cell>
-          <cell r="P22">
-            <v>19.631026227631725</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>22</v>
-          </cell>
-          <cell r="K23">
-            <v>-3.7700000000768341E-2</v>
-          </cell>
-          <cell r="L23">
-            <v>2.500306890013599</v>
-          </cell>
-          <cell r="O23">
-            <v>-4.1999999957624823E-3</v>
-          </cell>
-          <cell r="P23">
-            <v>30.690222140868425</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>23</v>
-          </cell>
-          <cell r="K24">
-            <v>-0.11319999999977881</v>
-          </cell>
-          <cell r="L24">
-            <v>1.6444584387206793</v>
-          </cell>
-          <cell r="O24">
-            <v>-2.599999999802094E-3</v>
-          </cell>
-          <cell r="P24">
-            <v>34.226673754438522</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>24</v>
-          </cell>
-          <cell r="K25">
-            <v>5.7300000000395812E-2</v>
-          </cell>
-          <cell r="L25">
-            <v>2.8054169335127046</v>
-          </cell>
-          <cell r="O25">
-            <v>3.7000000011175871E-3</v>
-          </cell>
-          <cell r="P25">
-            <v>40.604049557043666</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>25</v>
-          </cell>
-          <cell r="K26">
-            <v>-0.14370000000053551</v>
-          </cell>
-          <cell r="L26">
-            <v>1.2787640904202884</v>
-          </cell>
-          <cell r="O26">
-            <v>3.2099999996717088E-2</v>
-          </cell>
-          <cell r="P26">
-            <v>0.52430872219184643</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>26</v>
-          </cell>
-          <cell r="K27">
-            <v>6.0299999997369014E-2</v>
-          </cell>
-          <cell r="L27">
-            <v>2.7946543488003432</v>
-          </cell>
-          <cell r="O27">
-            <v>8.4999999962747097E-3</v>
-          </cell>
-          <cell r="P27">
-            <v>35.066552602990981</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>27</v>
-          </cell>
-          <cell r="K28">
-            <v>6.2999999936437234E-3</v>
-          </cell>
-          <cell r="L28">
-            <v>2.7922027098840005</v>
-          </cell>
-          <cell r="O28">
-            <v>1.4999999984866008E-3</v>
-          </cell>
-          <cell r="P28">
-            <v>40.08741150968843</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>28</v>
-          </cell>
-          <cell r="K29">
-            <v>-0.16320000000268919</v>
-          </cell>
-          <cell r="L29">
-            <v>1.0621370470116391</v>
-          </cell>
-          <cell r="O29">
-            <v>-1.6799999997601844E-2</v>
-          </cell>
-          <cell r="P29">
-            <v>5.1323295360316035</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>29</v>
-          </cell>
-          <cell r="K30">
-            <v>0.39979999999923166</v>
-          </cell>
-          <cell r="L30">
-            <v>9.3898759565732709E-2</v>
-          </cell>
-          <cell r="O30">
-            <v>1.0500000003958121E-2</v>
-          </cell>
-          <cell r="P30">
-            <v>30.738045589364813</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>30</v>
-          </cell>
-          <cell r="K31">
-            <v>2.2799999998824205E-2</v>
-          </cell>
-          <cell r="L31">
-            <v>2.8372652827544256</v>
-          </cell>
-          <cell r="O31">
-            <v>0</v>
-          </cell>
-          <cell r="P31">
-            <v>38.609483447471803</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>31</v>
-          </cell>
-          <cell r="K32">
-            <v>-4.3200000000069849E-2</v>
-          </cell>
-          <cell r="L32">
-            <v>2.4490127086594997</v>
-          </cell>
-          <cell r="O32">
-            <v>1.4600000002246816E-2</v>
-          </cell>
-          <cell r="P32">
-            <v>20.604063511856584</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>32</v>
-          </cell>
-          <cell r="K33">
-            <v>3.7999999985913746E-3</v>
-          </cell>
-          <cell r="L33">
-            <v>2.7820737243109224</v>
-          </cell>
-          <cell r="O33">
-            <v>1.1800000000221189E-2</v>
-          </cell>
-          <cell r="P33">
-            <v>27.59344921779671</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>33</v>
-          </cell>
-          <cell r="K34">
-            <v>-8.3699999995587859E-2</v>
-          </cell>
-          <cell r="L34">
-            <v>2.0050137016231808</v>
-          </cell>
-          <cell r="O34">
-            <v>2.8399999995599501E-2</v>
-          </cell>
-          <cell r="P34">
-            <v>1.4855450963017798</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>34</v>
-          </cell>
-          <cell r="K35">
-            <v>1.6800000004877802E-2</v>
-          </cell>
-          <cell r="L35">
-            <v>2.8253201317623597</v>
-          </cell>
-          <cell r="O35">
-            <v>1.299999999901047E-2</v>
-          </cell>
-          <cell r="P35">
-            <v>24.590784156168397</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>35</v>
-          </cell>
-          <cell r="K36">
-            <v>-5.1200000001699664E-2</v>
-          </cell>
-          <cell r="L36">
-            <v>2.3697554398885359</v>
-          </cell>
-          <cell r="O36">
-            <v>1.329999999870779E-2</v>
-          </cell>
-          <cell r="P36">
-            <v>23.836838863268092</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>36</v>
-          </cell>
-          <cell r="K37">
-            <v>5.0800000004528556E-2</v>
-          </cell>
-          <cell r="L37">
-            <v>2.8244376189759524</v>
-          </cell>
-          <cell r="O37">
-            <v>7.9999999943538569E-3</v>
-          </cell>
-          <cell r="P37">
-            <v>36.006172829588763</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>37</v>
-          </cell>
-          <cell r="K38">
-            <v>5.37999999942258E-2</v>
-          </cell>
-          <cell r="L38">
-            <v>2.8163951178329785</v>
-          </cell>
-          <cell r="O38">
-            <v>-9.9999997473787516E-5</v>
-          </cell>
-          <cell r="P38">
-            <v>38.480914925854641</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>38</v>
-          </cell>
-          <cell r="K39">
-            <v>-8.1999999965773895E-3</v>
-          </cell>
-          <cell r="L39">
-            <v>2.7218878762836902</v>
-          </cell>
-          <cell r="O39">
-            <v>-1.2000000002444722E-2</v>
-          </cell>
-          <cell r="P39">
-            <v>12.321648990712252</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>39</v>
-          </cell>
-          <cell r="K40">
-            <v>3.3800000004703179E-2</v>
-          </cell>
-          <cell r="L40">
-            <v>2.8457252739272221</v>
-          </cell>
-          <cell r="O40">
-            <v>-3.1999999991967343E-3</v>
-          </cell>
-          <cell r="P40">
-            <v>32.957684973131933</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>40</v>
-          </cell>
-          <cell r="K41">
-            <v>0.31330000000161817</v>
-          </cell>
-          <cell r="L41">
-            <v>0.38898352995943747</v>
-          </cell>
-          <cell r="O41">
-            <v>1.9599999999627471E-2</v>
-          </cell>
-          <cell r="P41">
-            <v>9.9870127184285398</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>41</v>
-          </cell>
-          <cell r="K42">
-            <v>-1.7699999996693805E-2</v>
-          </cell>
-          <cell r="L42">
-            <v>2.6613004946378691</v>
-          </cell>
-          <cell r="O42">
-            <v>6.6999999980907887E-3</v>
-          </cell>
-          <cell r="P42">
-            <v>38.102672858017456</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>42</v>
-          </cell>
-          <cell r="K43">
-            <v>2.3300000000745058E-2</v>
-          </cell>
-          <cell r="L43">
-            <v>2.8380283203296375</v>
-          </cell>
-          <cell r="O43">
-            <v>2.1999999953550287E-3</v>
-          </cell>
-          <cell r="P43">
-            <v>40.471247875465366</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>43</v>
-          </cell>
-          <cell r="K44">
-            <v>-2.719999999681022E-2</v>
-          </cell>
-          <cell r="L44">
-            <v>2.5901401468766889</v>
-          </cell>
-          <cell r="O44">
-            <v>-1.1899999997694977E-2</v>
-          </cell>
-          <cell r="P44">
-            <v>12.516627196026747</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>44</v>
-          </cell>
-          <cell r="K45">
-            <v>-1.6200000005483162E-2</v>
-          </cell>
-          <cell r="L45">
-            <v>2.6715919792922329</v>
-          </cell>
-          <cell r="O45">
-            <v>-5.0999999948544428E-3</v>
-          </cell>
-          <cell r="P45">
-            <v>28.528624957300458</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>45</v>
-          </cell>
-          <cell r="K46">
-            <v>2.2299999996903352E-2</v>
-          </cell>
-          <cell r="L46">
-            <v>2.8364663686348552</v>
-          </cell>
-          <cell r="O46">
-            <v>-2.4999999950523488E-3</v>
-          </cell>
-          <cell r="P46">
-            <v>34.430348911950503</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>46</v>
-          </cell>
-          <cell r="K47">
-            <v>4.830000000220025E-2</v>
-          </cell>
-          <cell r="L47">
-            <v>2.8301670342143672</v>
-          </cell>
-          <cell r="O47">
-            <v>1.8999999956577085E-3</v>
-          </cell>
-          <cell r="P47">
-            <v>40.33143440496184</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>47</v>
-          </cell>
-          <cell r="K48">
-            <v>0.32280000000173459</v>
-          </cell>
-          <cell r="L48">
-            <v>0.33901640089717083</v>
-          </cell>
-          <cell r="O48">
-            <v>4.999999946448952E-4</v>
-          </cell>
-          <cell r="P48">
-            <v>39.1976585395185</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>48</v>
-          </cell>
-          <cell r="K49">
-            <v>9.7999999998137355E-3</v>
-          </cell>
-          <cell r="L49">
-            <v>2.8049462923164361</v>
-          </cell>
-          <cell r="O49">
-            <v>1.1999999987892807E-3</v>
-          </cell>
-          <cell r="P49">
-            <v>39.861850931846234</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>49</v>
-          </cell>
-          <cell r="K50">
-            <v>6.9800000004761387E-2</v>
-          </cell>
-          <cell r="L50">
-            <v>2.7525161726970868</v>
-          </cell>
-          <cell r="O50">
-            <v>-5.0000000192085281E-4</v>
-          </cell>
-          <cell r="P50">
-            <v>37.931474972638291</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>50</v>
-          </cell>
-          <cell r="K51">
-            <v>-4.6999999976833351E-3</v>
-          </cell>
-          <cell r="L51">
-            <v>2.7413804099718839</v>
-          </cell>
-          <cell r="O51">
-            <v>1.3100000003760215E-2</v>
-          </cell>
-          <cell r="P51">
-            <v>24.339384805896231</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>51</v>
-          </cell>
-          <cell r="K52">
-            <v>-0.12969999999768334</v>
-          </cell>
-          <cell r="L52">
-            <v>1.4437175402920994</v>
-          </cell>
-          <cell r="O52">
-            <v>-3.5199999998440035E-2</v>
-          </cell>
-          <cell r="P52">
-            <v>1.9459893952171969E-2</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>52</v>
-          </cell>
-          <cell r="K53">
-            <v>1.329999999870779E-2</v>
-          </cell>
-          <cell r="L53">
-            <v>2.8159922589788722</v>
-          </cell>
-          <cell r="O53">
-            <v>4.2000000030384399E-3</v>
-          </cell>
-          <cell r="P53">
-            <v>40.437783935611236</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>53</v>
-          </cell>
-          <cell r="K54">
-            <v>1.4300000002549496E-2</v>
-          </cell>
-          <cell r="L54">
-            <v>2.8188334986968417</v>
-          </cell>
-          <cell r="O54">
-            <v>-2.4999999950523488E-3</v>
-          </cell>
-          <cell r="P54">
-            <v>34.430348911950503</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>54</v>
-          </cell>
-          <cell r="K55">
-            <v>5.7299999993119854E-2</v>
-          </cell>
-          <cell r="L55">
-            <v>2.8054169335372996</v>
-          </cell>
-          <cell r="O55">
-            <v>2.0999999978812411E-3</v>
-          </cell>
-          <cell r="P55">
-            <v>40.428790122321793</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>55</v>
-          </cell>
-          <cell r="K56">
-            <v>6.300000000919681E-3</v>
-          </cell>
-          <cell r="L56">
-            <v>2.7922027099122415</v>
-          </cell>
-          <cell r="O56">
-            <v>7.2000000000116415E-3</v>
-          </cell>
-          <cell r="P56">
-            <v>37.359811943518686</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>56</v>
-          </cell>
-          <cell r="K57">
-            <v>-1.3700000003154855E-2</v>
-          </cell>
-          <cell r="L57">
-            <v>2.688148987295206</v>
-          </cell>
-          <cell r="O57">
-            <v>8.0000000016298145E-3</v>
-          </cell>
-          <cell r="P57">
-            <v>36.006172816414434</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>57</v>
-          </cell>
-          <cell r="K58">
-            <v>1.0799999996379483E-2</v>
-          </cell>
-          <cell r="L58">
-            <v>2.8082764627255479</v>
-          </cell>
-          <cell r="O58">
-            <v>2.9999999969732016E-4</v>
-          </cell>
-          <cell r="P58">
-            <v>38.97346749061721</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>58</v>
-          </cell>
-          <cell r="K59">
-            <v>5.3800000001501758E-2</v>
-          </cell>
-          <cell r="L59">
-            <v>2.8163951178119362</v>
-          </cell>
-          <cell r="O59">
-            <v>-4.0999999982886948E-3</v>
-          </cell>
-          <cell r="P59">
-            <v>30.924220498706465</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>59</v>
-          </cell>
-          <cell r="K60">
-            <v>-0.16820000000006985</v>
-          </cell>
-          <cell r="L60">
-            <v>1.0096198081561725</v>
-          </cell>
-          <cell r="O60">
-            <v>1.6100000000733417E-2</v>
-          </cell>
-          <cell r="P60">
-            <v>17.038957698785399</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>60</v>
-          </cell>
-          <cell r="K61">
-            <v>-8.6999999984982423E-3</v>
-          </cell>
-          <cell r="L61">
-            <v>2.7189762148367542</v>
-          </cell>
-          <cell r="O61">
-            <v>-4.2999999932362698E-3</v>
-          </cell>
-          <cell r="P61">
-            <v>30.454829857485592</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>61</v>
-          </cell>
-          <cell r="K62">
-            <v>-1.1999999987892807E-3</v>
-          </cell>
-          <cell r="L62">
-            <v>2.7592921128859649</v>
-          </cell>
-          <cell r="O62">
-            <v>7.7999999994062819E-3</v>
-          </cell>
-          <cell r="P62">
-            <v>36.362576000646769</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>62</v>
-          </cell>
-          <cell r="K63">
-            <v>1.3800000000628643E-2</v>
-          </cell>
-          <cell r="L63">
-            <v>2.8174304402817039</v>
-          </cell>
-          <cell r="O63">
-            <v>1.3700000003154855E-2</v>
-          </cell>
-          <cell r="P63">
-            <v>22.834172979686603</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>63</v>
-          </cell>
-          <cell r="K64">
-            <v>2.0800000005692709E-2</v>
-          </cell>
-          <cell r="L64">
-            <v>2.8338546780735081</v>
-          </cell>
-          <cell r="O64">
-            <v>2.8000000020256266E-3</v>
-          </cell>
-          <cell r="P64">
-            <v>40.638163523312429</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>64</v>
-          </cell>
-          <cell r="K65">
-            <v>-4.4199999996635597E-2</v>
-          </cell>
-          <cell r="L65">
-            <v>2.4393967602696689</v>
-          </cell>
-          <cell r="O65">
-            <v>-1.2700000006589107E-2</v>
-          </cell>
-          <cell r="P65">
-            <v>11.007176819893401</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>65</v>
-          </cell>
-          <cell r="K66">
-            <v>4.6799999996437691E-2</v>
-          </cell>
-          <cell r="L66">
-            <v>2.833177751908222</v>
-          </cell>
-          <cell r="O66">
-            <v>1.9000000000232831E-2</v>
-          </cell>
-          <cell r="P66">
-            <v>11.044197995820548</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>66</v>
-          </cell>
-          <cell r="K67">
-            <v>0.16679999999905704</v>
-          </cell>
-          <cell r="L67">
-            <v>1.8122471758040994</v>
-          </cell>
-          <cell r="O67">
-            <v>9.9999999656574801E-4</v>
-          </cell>
-          <cell r="P67">
-            <v>39.691556773038528</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>67</v>
-          </cell>
-          <cell r="K68">
-            <v>-0.15769999999611173</v>
-          </cell>
-          <cell r="L68">
-            <v>1.121417798277627</v>
-          </cell>
-          <cell r="O68">
-            <v>5.0000000192085281E-4</v>
-          </cell>
-          <cell r="P68">
-            <v>39.197658547401602</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>68</v>
-          </cell>
-          <cell r="K69">
-            <v>5.2299999995739199E-2</v>
-          </cell>
-          <cell r="L69">
-            <v>2.820574954044802</v>
-          </cell>
-          <cell r="O69">
-            <v>1.1999999987892807E-3</v>
-          </cell>
-          <cell r="P69">
-            <v>39.861850931846234</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>69</v>
-          </cell>
-          <cell r="K70">
-            <v>1.2300000002142042E-2</v>
-          </cell>
-          <cell r="L70">
-            <v>2.8130107470747689</v>
-          </cell>
-          <cell r="O70">
-            <v>-2.4000000048545189E-3</v>
-          </cell>
-          <cell r="P70">
-            <v>34.631637502021896</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>70</v>
-          </cell>
-          <cell r="K71">
-            <v>5.9300000000803266E-2</v>
-          </cell>
-          <cell r="L71">
-            <v>2.7983796658121527</v>
-          </cell>
-          <cell r="O71">
-            <v>-8.900000000721775E-3</v>
-          </cell>
-          <cell r="P71">
-            <v>19.101113437735162</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>71</v>
-          </cell>
-          <cell r="K72">
-            <v>1.6300000002956949E-2</v>
-          </cell>
-          <cell r="L72">
-            <v>2.8240934593303701</v>
-          </cell>
-          <cell r="O72">
-            <v>2.3999999975785613E-3</v>
-          </cell>
-          <cell r="P72">
-            <v>40.543657247842226</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>72</v>
-          </cell>
-          <cell r="K73">
-            <v>3.3300000002782326E-2</v>
-          </cell>
-          <cell r="L73">
-            <v>2.8457202482115158</v>
-          </cell>
-          <cell r="O73">
-            <v>7.2000000000116415E-3</v>
-          </cell>
-          <cell r="P73">
-            <v>37.359811943518686</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>73</v>
-          </cell>
-          <cell r="K74">
-            <v>-4.2699999998148996E-2</v>
-          </cell>
-          <cell r="L74">
-            <v>2.4537880672954677</v>
-          </cell>
-          <cell r="O74">
-            <v>-2.9999999969732016E-3</v>
-          </cell>
-          <cell r="P74">
-            <v>33.389239770424851</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>74</v>
-          </cell>
-          <cell r="K75">
-            <v>0.14130000000295695</v>
-          </cell>
-          <cell r="L75">
-            <v>2.1187494952431991</v>
-          </cell>
-          <cell r="O75">
-            <v>-5.5999999967752956E-3</v>
-          </cell>
-          <cell r="P75">
-            <v>27.294785716872298</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>75</v>
-          </cell>
-          <cell r="K76">
-            <v>-2.2000000026309863E-3</v>
-          </cell>
-          <cell r="L76">
-            <v>2.754337752887781</v>
-          </cell>
-          <cell r="O76">
-            <v>-1.3000000035390258E-3</v>
-          </cell>
-          <cell r="P76">
-            <v>36.672659879853455</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>76</v>
-          </cell>
-          <cell r="K77">
-            <v>-8.0200000003969762E-2</v>
-          </cell>
-          <cell r="L77">
-            <v>2.0467075256838552</v>
-          </cell>
-          <cell r="O77">
-            <v>1.1999999987892807E-3</v>
-          </cell>
-          <cell r="P77">
-            <v>39.861850931846234</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>77</v>
-          </cell>
-          <cell r="K78">
-            <v>0.50979999999981374</v>
-          </cell>
-          <cell r="L78">
-            <v>8.8892993754969129E-3</v>
-          </cell>
-          <cell r="O78">
-            <v>-4.7000000049592927E-3</v>
-          </cell>
-          <cell r="P78">
-            <v>29.500508959025318</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>78</v>
-          </cell>
-          <cell r="K79">
-            <v>3.080000000045402E-2</v>
-          </cell>
-          <cell r="L79">
-            <v>2.8451521886456037</v>
-          </cell>
-          <cell r="O79">
-            <v>6.0000000012223609E-3</v>
-          </cell>
-          <cell r="P79">
-            <v>38.997005001702242</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>79</v>
-          </cell>
-          <cell r="K80">
-            <v>-7.9200000000128057E-2</v>
-          </cell>
-          <cell r="L80">
-            <v>2.0585428268652808</v>
-          </cell>
-          <cell r="O80">
-            <v>2.7000000045518391E-3</v>
-          </cell>
-          <cell r="P80">
-            <v>40.620846849830748</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>80</v>
-          </cell>
-          <cell r="K81">
-            <v>-5.6700000001001172E-2</v>
-          </cell>
-          <cell r="L81">
-            <v>2.312386799947034</v>
-          </cell>
-          <cell r="O81">
-            <v>-1.799999998183921E-3</v>
-          </cell>
-          <cell r="P81">
-            <v>35.786153572945985</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>81</v>
-          </cell>
-          <cell r="K82">
-            <v>2.7799999996204861E-2</v>
-          </cell>
-          <cell r="L82">
-            <v>2.8432768690038186</v>
-          </cell>
-          <cell r="O82">
-            <v>-5.7999999989988282E-3</v>
-          </cell>
-          <cell r="P82">
-            <v>26.796825825829789</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>82</v>
-          </cell>
-          <cell r="K83">
-            <v>0.20930000000225846</v>
-          </cell>
-          <cell r="L83">
-            <v>1.2977240219947492</v>
-          </cell>
-          <cell r="O83">
-            <v>3.7000000011175871E-3</v>
-          </cell>
-          <cell r="P83">
-            <v>40.604049557043666</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>83</v>
-          </cell>
-          <cell r="K84">
-            <v>-6.9200000005366746E-2</v>
-          </cell>
-          <cell r="L84">
-            <v>2.1746317517420706</v>
-          </cell>
-          <cell r="O84">
-            <v>2.599999999802094E-3</v>
-          </cell>
-          <cell r="P84">
-            <v>40.599318891343913</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>84</v>
-          </cell>
-          <cell r="K85">
-            <v>-0.11570000000210712</v>
-          </cell>
-          <cell r="L85">
-            <v>1.6137744932720823</v>
-          </cell>
-          <cell r="O85">
-            <v>1.6400000000430737E-2</v>
-          </cell>
-          <cell r="P85">
-            <v>16.357716502641587</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>85</v>
-          </cell>
-          <cell r="K86">
-            <v>0.5842999999949825</v>
-          </cell>
-          <cell r="L86">
-            <v>1.269434774045875E-3</v>
-          </cell>
-          <cell r="O86">
-            <v>5.4000000018277206E-3</v>
-          </cell>
-          <cell r="P86">
-            <v>39.619390249111888</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>86</v>
-          </cell>
-          <cell r="K87">
-            <v>3.1799999997019768E-2</v>
-          </cell>
-          <cell r="L87">
-            <v>2.8454879854695467</v>
-          </cell>
-          <cell r="O87">
-            <v>6.3999999983934686E-3</v>
-          </cell>
-          <cell r="P87">
-            <v>38.507417849355988</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>87</v>
-          </cell>
-          <cell r="K88">
-            <v>-8.5700000003271271E-2</v>
-          </cell>
-          <cell r="L88">
-            <v>1.9810166486754333</v>
-          </cell>
-          <cell r="O88">
-            <v>-7.0999999952618964E-3</v>
-          </cell>
-          <cell r="P88">
-            <v>23.534635632498819</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>88</v>
-          </cell>
-          <cell r="K89">
-            <v>-7.9699999994772952E-2</v>
-          </cell>
-          <cell r="L89">
-            <v>2.0526297014148573</v>
-          </cell>
-          <cell r="O89">
-            <v>-8.900000000721775E-3</v>
-          </cell>
-          <cell r="P89">
-            <v>19.101113437735162</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>89</v>
-          </cell>
-          <cell r="K90">
-            <v>-5.6999999942490831E-3</v>
-          </cell>
-          <cell r="L90">
-            <v>2.7359709239181296</v>
-          </cell>
-          <cell r="O90">
-            <v>2.4899999996705446E-2</v>
-          </cell>
-          <cell r="P90">
-            <v>3.4904260572769479</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>90</v>
-          </cell>
-          <cell r="K91">
-            <v>-9.7699999998440035E-2</v>
-          </cell>
-          <cell r="L91">
-            <v>1.8350866944861799</v>
-          </cell>
-          <cell r="O91">
-            <v>1.6400000000430737E-2</v>
-          </cell>
-          <cell r="P91">
-            <v>16.357716502641587</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>91</v>
-          </cell>
-          <cell r="K92">
-            <v>7.2299999999813735E-2</v>
-          </cell>
-          <cell r="L92">
-            <v>2.7394415401168102</v>
-          </cell>
-          <cell r="O92">
-            <v>-2.9999999969732016E-3</v>
-          </cell>
-          <cell r="P92">
-            <v>33.389239770424851</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>92</v>
-          </cell>
-          <cell r="K93">
-            <v>-3.4700000003795139E-2</v>
-          </cell>
-          <cell r="L93">
-            <v>2.5270969491531599</v>
-          </cell>
-          <cell r="O93">
-            <v>8.3999999988009222E-3</v>
-          </cell>
-          <cell r="P93">
-            <v>35.259820766398882</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>93</v>
-          </cell>
-          <cell r="K94">
-            <v>0.31530000000202563</v>
-          </cell>
-          <cell r="L94">
-            <v>0.37803004229664849</v>
-          </cell>
-          <cell r="O94">
-            <v>7.4999999997089617E-3</v>
-          </cell>
-          <cell r="P94">
-            <v>36.875059053168535</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>94</v>
-          </cell>
-          <cell r="K95">
-            <v>3.1799999997019768E-2</v>
-          </cell>
-          <cell r="L95">
-            <v>2.8454879854695467</v>
-          </cell>
-          <cell r="O95">
-            <v>-3.6000000036437996E-3</v>
-          </cell>
-          <cell r="P95">
-            <v>32.071223786253356</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>95</v>
-          </cell>
-          <cell r="K96">
-            <v>-3.4200000001874287E-2</v>
-          </cell>
-          <cell r="L96">
-            <v>2.5314770748777575</v>
-          </cell>
-          <cell r="O96">
-            <v>-8.8000000032479875E-3</v>
-          </cell>
-          <cell r="P96">
-            <v>19.340971759415783</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>96</v>
-          </cell>
-          <cell r="K97">
-            <v>0.59829999999783468</v>
-          </cell>
-          <cell r="L97">
-            <v>8.5325821575804052E-4</v>
-          </cell>
-          <cell r="O97">
-            <v>-6.3999999983934686E-3</v>
-          </cell>
-          <cell r="P97">
-            <v>25.293640708596111</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>97</v>
-          </cell>
-          <cell r="K98">
-            <v>3.7299999996321276E-2</v>
-          </cell>
-          <cell r="L98">
-            <v>2.8447470432906861</v>
-          </cell>
-          <cell r="O98">
-            <v>4.0999999982886948E-3</v>
-          </cell>
-          <cell r="P98">
-            <v>40.479393597360463</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>98</v>
-          </cell>
-          <cell r="K99">
-            <v>-1.4699999999720603E-2</v>
-          </cell>
-          <cell r="L99">
-            <v>2.6816162393933194</v>
-          </cell>
-          <cell r="O99">
-            <v>-1.4999999984866008E-3</v>
-          </cell>
-          <cell r="P99">
-            <v>36.326773840845277</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>99</v>
-          </cell>
-          <cell r="K100">
-            <v>0.30080000000452856</v>
-          </cell>
-          <cell r="L100">
-            <v>0.46287018346621278</v>
-          </cell>
-          <cell r="O100">
-            <v>8.3000000013271347E-3</v>
-          </cell>
-          <cell r="P100">
-            <v>35.450470473951022</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>100</v>
-          </cell>
-          <cell r="K101">
-            <v>5.0799999997252598E-2</v>
-          </cell>
-          <cell r="L101">
-            <v>2.8244376189939175</v>
-          </cell>
-          <cell r="O101">
-            <v>-4.7999999951571226E-3</v>
-          </cell>
-          <cell r="P101">
-            <v>29.259037080592158</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>101</v>
-          </cell>
-          <cell r="K102">
-            <v>-7.4200000002747402E-2</v>
-          </cell>
-          <cell r="L102">
-            <v>2.1171373767579111</v>
-          </cell>
-          <cell r="O102">
-            <v>-1.7000000007101335E-3</v>
-          </cell>
-          <cell r="P102">
-            <v>35.96919756518249</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>102</v>
-          </cell>
-          <cell r="K103">
-            <v>-7.069999999657739E-2</v>
-          </cell>
-          <cell r="L103">
-            <v>2.1575095473373165</v>
-          </cell>
-          <cell r="O103">
-            <v>3.0999999944469891E-3</v>
-          </cell>
-          <cell r="P103">
-            <v>40.664798464822944</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>103</v>
-          </cell>
-          <cell r="K104">
-            <v>8.5800000000745058E-2</v>
-          </cell>
-          <cell r="L104">
-            <v>2.6552726105768896</v>
-          </cell>
-          <cell r="O104">
-            <v>-5.9999999939464033E-4</v>
-          </cell>
-          <cell r="P104">
-            <v>37.785528708862266</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -7714,7 +5926,7 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7861,7 +6073,7 @@
         <v>-0.23670000000129221</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J66" si="2">NORMDIST(I3,I$106,I$110,FALSE)</f>
+        <f t="shared" ref="J3:J62" si="2">NORMDIST(I3,I$106,I$110,FALSE)</f>
         <v>2.8910836310368442</v>
       </c>
       <c r="K3" s="6">
@@ -7874,7 +6086,7 @@
         <v>5.4000000018277206E-3</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N66" si="3">NORMDIST(M3,M$106,M$110,FALSE)</f>
+        <f t="shared" ref="N3:N62" si="3">NORMDIST(M3,M$106,M$110,FALSE)</f>
         <v>39.98921856089234</v>
       </c>
       <c r="O3" s="6">
